--- a/포트폴리오 각종 서식/[6기]1조_전자결재페이지_기능정의서_종합_Ver1.4.xlsx
+++ b/포트폴리오 각종 서식/[6기]1조_전자결재페이지_기능정의서_종합_Ver1.4.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSMO-27\Documents\GitHub\-6th-_cosmo_1th_group\포트폴리오 각종 서식\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F97E26-C49A-4A15-9D1C-9A04A2B354A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="345" windowWidth="14310" windowHeight="14625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="345" windowWidth="14310" windowHeight="14625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="문서 이력 및 요약" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="454">
   <si>
     <t>번호</t>
   </si>
@@ -6595,18 +6589,225 @@
   </si>
   <si>
     <t>수정페이지</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>AM-APP-MAI-14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문서가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.' alert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>창</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>띄움</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6746,6 +6947,19 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -7389,7 +7603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7561,140 +7775,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7702,22 +7784,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7729,49 +7796,10 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7798,19 +7826,214 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8027,7 +8250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8045,19 +8268,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -8075,17 +8298,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -8107,32 +8330,32 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="86"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -8141,16 +8364,16 @@
       <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="75"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="13" t="s">
         <v>21</v>
       </c>
@@ -8162,16 +8385,16 @@
       <c r="B7" s="15">
         <v>43716</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="17" t="s">
         <v>25</v>
       </c>
@@ -8183,16 +8406,16 @@
       <c r="B8" s="15">
         <v>43717</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="78"/>
       <c r="K8" s="17" t="s">
         <v>25</v>
       </c>
@@ -8204,16 +8427,16 @@
       <c r="B9" s="21">
         <v>43724</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
       <c r="K9" s="24" t="s">
         <v>25</v>
       </c>
@@ -8225,16 +8448,16 @@
       <c r="B10" s="28">
         <v>43726</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
       <c r="K10" s="30" t="s">
         <v>25</v>
       </c>
@@ -8246,55 +8469,55 @@
       <c r="B11" s="28">
         <v>43734</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="32"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="32"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
       <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8310,48 +8533,48 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="86"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="75"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81"/>
       <c r="K20" s="13" t="s">
         <v>21</v>
       </c>
@@ -8360,17 +8583,17 @@
       <c r="A21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
       <c r="K21" s="17" t="s">
         <v>25</v>
       </c>
@@ -8379,17 +8602,17 @@
       <c r="A22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
       <c r="K22" s="17" t="s">
         <v>25</v>
       </c>
@@ -8398,71 +8621,71 @@
       <c r="A23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
       <c r="K23" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="78"/>
       <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="78"/>
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="78"/>
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8482,50 +8705,50 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="65"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="84"/>
     </row>
     <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="68"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="86"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60" t="s">
+      <c r="C34" s="78"/>
+      <c r="D34" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="59"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="78"/>
       <c r="K34" s="17" t="s">
         <v>21</v>
       </c>
@@ -8534,19 +8757,19 @@
       <c r="A35" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="61" t="s">
+      <c r="C35" s="78"/>
+      <c r="D35" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="59"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="78"/>
       <c r="K35" s="17" t="s">
         <v>25</v>
       </c>
@@ -8555,19 +8778,19 @@
       <c r="A36" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="61" t="s">
+      <c r="C36" s="78"/>
+      <c r="D36" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="59"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="78"/>
       <c r="K36" s="17" t="s">
         <v>25</v>
       </c>
@@ -8576,19 +8799,19 @@
       <c r="A37" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="61" t="s">
+      <c r="C37" s="78"/>
+      <c r="D37" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="59"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="17" t="s">
         <v>25</v>
       </c>
@@ -8597,19 +8820,19 @@
       <c r="A38" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="61" t="s">
+      <c r="C38" s="78"/>
+      <c r="D38" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="59"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="78"/>
       <c r="K38" s="17" t="s">
         <v>25</v>
       </c>
@@ -8618,19 +8841,19 @@
       <c r="A39" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="61" t="s">
+      <c r="C39" s="78"/>
+      <c r="D39" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="59"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="78"/>
       <c r="K39" s="17" t="s">
         <v>25</v>
       </c>
@@ -8639,19 +8862,19 @@
       <c r="A40" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="69" t="s">
+      <c r="C40" s="78"/>
+      <c r="D40" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="59"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="78"/>
       <c r="K40" s="30" t="s">
         <v>25</v>
       </c>
@@ -8660,19 +8883,19 @@
       <c r="A41" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="61" t="s">
+      <c r="C41" s="78"/>
+      <c r="D41" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="59"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="78"/>
       <c r="K41" s="17" t="s">
         <v>25</v>
       </c>
@@ -8681,19 +8904,19 @@
       <c r="A42" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="69" t="s">
+      <c r="C42" s="78"/>
+      <c r="D42" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="59"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="78"/>
       <c r="K42" s="30" t="s">
         <v>25</v>
       </c>
@@ -8702,19 +8925,19 @@
       <c r="A43" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="61" t="s">
+      <c r="C43" s="78"/>
+      <c r="D43" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="59"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="78"/>
       <c r="K43" s="17" t="s">
         <v>25</v>
       </c>
@@ -8723,19 +8946,19 @@
       <c r="A44" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="61" t="s">
+      <c r="C44" s="78"/>
+      <c r="D44" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="59"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="78"/>
       <c r="K44" s="17" t="s">
         <v>25</v>
       </c>
@@ -8744,19 +8967,19 @@
       <c r="A45" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="61" t="s">
+      <c r="C45" s="78"/>
+      <c r="D45" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="59"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="78"/>
       <c r="K45" s="17" t="s">
         <v>25</v>
       </c>
@@ -8765,19 +8988,19 @@
       <c r="A46" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="61" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="59"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="78"/>
       <c r="K46" s="17" t="s">
         <v>25</v>
       </c>
@@ -8786,19 +9009,19 @@
       <c r="A47" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="61" t="s">
+      <c r="C47" s="78"/>
+      <c r="D47" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="59"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="78"/>
       <c r="K47" s="17" t="s">
         <v>25</v>
       </c>
@@ -8807,19 +9030,19 @@
       <c r="A48" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="61" t="s">
+      <c r="C48" s="78"/>
+      <c r="D48" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="59"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="78"/>
       <c r="K48" s="17" t="s">
         <v>25</v>
       </c>
@@ -8828,19 +9051,19 @@
       <c r="A49" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="61" t="s">
+      <c r="C49" s="78"/>
+      <c r="D49" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="59"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="78"/>
       <c r="K49" s="17" t="s">
         <v>25</v>
       </c>
@@ -8849,19 +9072,19 @@
       <c r="A50" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="70" t="s">
+      <c r="C50" s="96"/>
+      <c r="D50" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="72"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="96"/>
       <c r="K50" s="48" t="s">
         <v>25</v>
       </c>
@@ -9832,21 +10055,30 @@
     <row r="1014" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A18:K19"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="A32:K33"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="D35:J35"/>
     <mergeCell ref="D49:J49"/>
     <mergeCell ref="D50:J50"/>
     <mergeCell ref="D41:J41"/>
@@ -9863,30 +10095,21 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D44:J44"/>
     <mergeCell ref="D47:J47"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="A32:K33"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A18:K19"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9895,12 +10118,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1033"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86:E104"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9917,46 +10140,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="92" t="s">
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="93" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="141" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
@@ -9978,7 +10201,7 @@
       <c r="M2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="90"/>
+      <c r="N2" s="120"/>
     </row>
     <row r="3" spans="1:14" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
@@ -9996,7 +10219,7 @@
       <c r="M3" s="11"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -10012,23 +10235,23 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+    <row r="5" spans="1:14" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="135"/>
     </row>
     <row r="6" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
@@ -10037,12 +10260,12 @@
       <c r="B6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -10065,10 +10288,10 @@
       <c r="B7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -10091,10 +10314,10 @@
       <c r="B8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="29"/>
       <c r="H8" s="27" t="s">
         <v>30</v>
@@ -10121,10 +10344,10 @@
       <c r="B9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
@@ -10147,12 +10370,12 @@
       <c r="B10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="95" t="s">
+      <c r="C10" s="110"/>
+      <c r="D10" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -10175,10 +10398,10 @@
       <c r="B11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="29"/>
       <c r="H11" s="27" t="s">
         <v>30</v>
@@ -10205,10 +10428,10 @@
       <c r="B12" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -10231,10 +10454,10 @@
       <c r="B13" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -10257,10 +10480,10 @@
       <c r="B14" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
@@ -10283,10 +10506,10 @@
       <c r="B15" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
@@ -10311,10 +10534,10 @@
       <c r="B16" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
       <c r="G16" s="29"/>
       <c r="H16" s="27"/>
       <c r="I16" s="29"/>
@@ -10337,10 +10560,10 @@
       <c r="B17" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="29"/>
       <c r="H17" s="27" t="s">
         <v>30</v>
@@ -10367,10 +10590,10 @@
       <c r="B18" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="29"/>
       <c r="H18" s="27" t="s">
         <v>30</v>
@@ -10397,10 +10620,10 @@
       <c r="B19" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
       <c r="G19" s="27" t="s">
         <v>30</v>
       </c>
@@ -10427,12 +10650,12 @@
       <c r="B20" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="29"/>
       <c r="H20" s="27" t="s">
         <v>30</v>
@@ -10459,10 +10682,10 @@
       <c r="B21" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="29"/>
       <c r="H21" s="27"/>
       <c r="I21" s="29"/>
@@ -10485,10 +10708,10 @@
       <c r="B22" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
       <c r="G22" s="29"/>
       <c r="H22" s="27"/>
       <c r="I22" s="29"/>
@@ -10511,10 +10734,10 @@
       <c r="B23" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="29"/>
       <c r="H23" s="27"/>
       <c r="I23" s="29"/>
@@ -10537,10 +10760,10 @@
       <c r="B24" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
       <c r="G24" s="29"/>
       <c r="H24" s="27"/>
       <c r="I24" s="29"/>
@@ -10563,10 +10786,10 @@
       <c r="B25" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
       <c r="G25" s="29"/>
       <c r="H25" s="27"/>
       <c r="I25" s="29"/>
@@ -10589,10 +10812,10 @@
       <c r="B26" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
       <c r="G26" s="29"/>
       <c r="H26" s="27"/>
       <c r="I26" s="29"/>
@@ -10617,10 +10840,10 @@
       <c r="B27" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
@@ -10643,10 +10866,10 @@
       <c r="B28" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
@@ -10669,10 +10892,10 @@
       <c r="B29" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
       <c r="G29" s="29"/>
       <c r="H29" s="27" t="s">
         <v>30</v>
@@ -10699,10 +10922,10 @@
       <c r="B30" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
       <c r="G30" s="27" t="s">
         <v>30</v>
       </c>
@@ -10729,10 +10952,10 @@
       <c r="B31" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -10757,10 +10980,10 @@
       <c r="B32" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
@@ -10785,10 +11008,10 @@
       <c r="B33" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
@@ -10813,10 +11036,10 @@
       <c r="B34" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
       <c r="G34" s="29"/>
       <c r="H34" s="27"/>
       <c r="I34" s="29"/>
@@ -10839,12 +11062,12 @@
       <c r="B35" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="95" t="s">
+      <c r="C35" s="110"/>
+      <c r="D35" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
       <c r="G35" s="29"/>
       <c r="H35" s="27" t="s">
         <v>30</v>
@@ -10869,10 +11092,10 @@
       <c r="B36" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
       <c r="G36" s="29"/>
       <c r="H36" s="27" t="s">
         <v>30</v>
@@ -10897,10 +11120,10 @@
       <c r="B37" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
       <c r="G37" s="29"/>
       <c r="H37" s="27" t="s">
         <v>30</v>
@@ -10927,10 +11150,10 @@
       <c r="B38" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="89"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="110"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -10955,12 +11178,12 @@
       <c r="B39" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="95" t="s">
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="89"/>
+      <c r="F39" s="110"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -10983,10 +11206,10 @@
       <c r="B40" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="120"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
@@ -11009,10 +11232,10 @@
       <c r="B41" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="95" t="s">
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="121" t="s">
         <v>159</v>
       </c>
       <c r="G41" s="29"/>
@@ -11041,10 +11264,10 @@
       <c r="B42" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
       <c r="G42" s="29"/>
       <c r="H42" s="27" t="s">
         <v>30</v>
@@ -11073,10 +11296,10 @@
       <c r="B43" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
       <c r="G43" s="29"/>
       <c r="H43" s="27" t="s">
         <v>30</v>
@@ -11105,10 +11328,10 @@
       <c r="B44" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
       <c r="G44" s="29"/>
       <c r="H44" s="27" t="s">
         <v>30</v>
@@ -11135,10 +11358,10 @@
       <c r="B45" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
       <c r="G45" s="29"/>
       <c r="H45" s="27" t="s">
         <v>30</v>
@@ -11165,10 +11388,10 @@
       <c r="B46" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
       <c r="G46" s="29"/>
       <c r="H46" s="27" t="s">
         <v>30</v>
@@ -11197,10 +11420,10 @@
       <c r="B47" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
       <c r="G47" s="29"/>
       <c r="H47" s="27" t="s">
         <v>30</v>
@@ -11229,10 +11452,10 @@
       <c r="B48" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
       <c r="G48" s="29"/>
       <c r="H48" s="27" t="s">
         <v>30</v>
@@ -11261,10 +11484,10 @@
       <c r="B49" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
       <c r="G49" s="29"/>
       <c r="H49" s="27" t="s">
         <v>30</v>
@@ -11293,10 +11516,10 @@
       <c r="B50" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
       <c r="G50" s="29"/>
       <c r="H50" s="27" t="s">
         <v>30</v>
@@ -11325,10 +11548,10 @@
       <c r="B51" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
@@ -11351,10 +11574,10 @@
       <c r="B52" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="90"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="120"/>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
       <c r="I52" s="27" t="s">
@@ -11381,10 +11604,10 @@
       <c r="B53" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="95" t="s">
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="121" t="s">
         <v>209</v>
       </c>
       <c r="G53" s="29"/>
@@ -11409,10 +11632,10 @@
       <c r="B54" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11435,10 +11658,10 @@
       <c r="B55" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
@@ -11461,10 +11684,10 @@
       <c r="B56" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
@@ -11489,10 +11712,10 @@
       <c r="B57" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C57" s="97"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="97"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
       <c r="G57" s="44"/>
       <c r="H57" s="44"/>
       <c r="I57" s="45" t="s">
@@ -11529,1929 +11752,1927 @@
       <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="125" t="s">
+      <c r="A59" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="B59" s="126"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
-      <c r="M59" s="126"/>
-      <c r="N59" s="127"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
+      <c r="J59" s="125"/>
+      <c r="K59" s="125"/>
+      <c r="L59" s="125"/>
+      <c r="M59" s="125"/>
+      <c r="N59" s="126"/>
     </row>
     <row r="60" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="128" t="s">
+      <c r="A60" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="110" t="s">
+      <c r="B60" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="111" t="s">
+      <c r="C60" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="111" t="s">
+      <c r="D60" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="E60" s="112"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="113"/>
-      <c r="H60" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="113"/>
-      <c r="K60" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L60" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M60" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="N60" s="129" t="s">
+      <c r="E60" s="128"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="63"/>
+      <c r="K60" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" s="67" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="128" t="s">
+      <c r="A61" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" s="113"/>
-      <c r="I61" s="113"/>
-      <c r="J61" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="K61" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L61" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M61" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="N61" s="129" t="s">
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" s="67" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="128" t="s">
+      <c r="A62" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="110" t="s">
+      <c r="B62" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="C62" s="111"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="I62" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="J62" s="113"/>
-      <c r="K62" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M62" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="N62" s="129" t="s">
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" s="63"/>
+      <c r="K62" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M62" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N62" s="67" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="128" t="s">
+      <c r="A63" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="C63" s="111"/>
-      <c r="D63" s="111"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="123"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="110"/>
-      <c r="I63" s="110"/>
-      <c r="J63" s="113"/>
-      <c r="K63" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M63" s="110"/>
-      <c r="N63" s="129" t="s">
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M63" s="61"/>
+      <c r="N63" s="67" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="128" t="s">
+    <row r="64" spans="1:14" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="110" t="s">
+      <c r="B64" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="C64" s="111"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="123"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="I64" s="113"/>
-      <c r="J64" s="113"/>
-      <c r="K64" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L64" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M64" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="N64" s="129" t="s">
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="M64" s="62"/>
+      <c r="N64" s="143" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M65" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" s="67" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="110" t="s">
-        <v>262</v>
-      </c>
-      <c r="C65" s="111"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="123"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="I65" s="113"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M65" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="N65" s="129" t="s">
+    <row r="66" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N66" s="67" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="110" t="s">
-        <v>264</v>
-      </c>
-      <c r="C66" s="111"/>
-      <c r="D66" s="111"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="113"/>
-      <c r="H66" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" s="113"/>
-      <c r="J66" s="113"/>
-      <c r="K66" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L66" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M66" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="N66" s="129" t="s">
+    <row r="67" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="129"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" s="67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="128" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="110" t="s">
-        <v>266</v>
-      </c>
-      <c r="C67" s="111"/>
-      <c r="D67" s="111"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="123"/>
-      <c r="G67" s="113"/>
-      <c r="H67" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="I67" s="113"/>
-      <c r="J67" s="113"/>
-      <c r="K67" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L67" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M67" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="N67" s="129" t="s">
+    <row r="68" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L68" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M68" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N68" s="67" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="128" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="110" t="s">
-        <v>268</v>
-      </c>
-      <c r="C68" s="111"/>
-      <c r="D68" s="111"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="123"/>
-      <c r="G68" s="113"/>
-      <c r="H68" s="110"/>
-      <c r="I68" s="113"/>
-      <c r="J68" s="113"/>
-      <c r="K68" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L68" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M68" s="113"/>
-      <c r="N68" s="129" t="s">
+    <row r="69" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="63"/>
+      <c r="N69" s="67" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="110" t="s">
-        <v>270</v>
-      </c>
-      <c r="C69" s="111"/>
-      <c r="D69" s="111"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="123"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L69" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M69" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="N69" s="129" t="s">
+    <row r="70" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="129"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M70" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N70" s="67" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="110" t="s">
-        <v>272</v>
-      </c>
-      <c r="C70" s="111"/>
-      <c r="D70" s="111"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="123"/>
-      <c r="G70" s="113"/>
-      <c r="H70" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="I70" s="113"/>
-      <c r="J70" s="113"/>
-      <c r="K70" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L70" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M70" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="N70" s="129" t="s">
+    <row r="71" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M71" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N71" s="67" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="128" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="110" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71" s="111"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="109"/>
-      <c r="F71" s="123"/>
-      <c r="G71" s="113"/>
-      <c r="H71" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="I71" s="113"/>
-      <c r="J71" s="113"/>
-      <c r="K71" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L71" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M71" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="N71" s="129" t="s">
+    <row r="72" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N72" s="67" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="128" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="110" t="s">
-        <v>276</v>
-      </c>
-      <c r="C72" s="111"/>
-      <c r="D72" s="111"/>
-      <c r="E72" s="109"/>
-      <c r="F72" s="123"/>
-      <c r="G72" s="113"/>
-      <c r="H72" s="113"/>
-      <c r="I72" s="113"/>
-      <c r="J72" s="113"/>
-      <c r="K72" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L72" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" s="113"/>
-      <c r="N72" s="129" t="s">
+    <row r="73" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="129"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L73" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M73" s="63"/>
+      <c r="N73" s="67" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="114" t="s">
+    <row r="74" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="C73" s="111"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="115" t="s">
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="116" t="s">
         <v>278</v>
       </c>
-      <c r="F73" s="123"/>
-      <c r="G73" s="116"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="114"/>
-      <c r="J73" s="116"/>
-      <c r="K73" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L73" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M73" s="114"/>
-      <c r="N73" s="130" t="s">
+      <c r="F74" s="107"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L74" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" s="64"/>
+      <c r="N74" s="68" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="128" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="114" t="s">
+    <row r="75" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="C74" s="111"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="115"/>
-      <c r="F74" s="123"/>
-      <c r="G74" s="116"/>
-      <c r="H74" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="I74" s="116"/>
-      <c r="J74" s="116"/>
-      <c r="K74" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L74" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M74" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N74" s="130" t="s">
+      <c r="C75" s="101"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L75" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N75" s="68" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="114" t="s">
+    <row r="76" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="C75" s="111"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="115"/>
-      <c r="F75" s="123"/>
-      <c r="G75" s="116"/>
-      <c r="H75" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="I75" s="116"/>
-      <c r="J75" s="116"/>
-      <c r="K75" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L75" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M75" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N75" s="131" t="s">
+      <c r="C76" s="101"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="107"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N76" s="69" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="128" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="114" t="s">
+    <row r="77" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="C76" s="111"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="115"/>
-      <c r="F76" s="123"/>
-      <c r="G76" s="116"/>
-      <c r="H76" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="I76" s="116"/>
-      <c r="J76" s="116"/>
-      <c r="K76" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L76" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M76" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N76" s="131" t="s">
+      <c r="C77" s="101"/>
+      <c r="D77" s="101"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L77" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N77" s="69" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="128" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77" s="114" t="s">
+    <row r="78" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="C77" s="111"/>
-      <c r="D77" s="111"/>
-      <c r="E77" s="115"/>
-      <c r="F77" s="123"/>
-      <c r="G77" s="114"/>
-      <c r="H77" s="116"/>
-      <c r="I77" s="116"/>
-      <c r="J77" s="116"/>
-      <c r="K77" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L77" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M77" s="114"/>
-      <c r="N77" s="131" t="s">
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="107"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L78" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" s="64"/>
+      <c r="N78" s="69" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="128" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="114" t="s">
+    <row r="79" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="C78" s="111"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="115"/>
-      <c r="F78" s="123"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="116"/>
-      <c r="I78" s="116"/>
-      <c r="J78" s="116"/>
-      <c r="K78" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L78" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M78" s="114"/>
-      <c r="N78" s="131" t="s">
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="107"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L79" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M79" s="64"/>
+      <c r="N79" s="69" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="128" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" s="114" t="s">
+    <row r="80" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="C79" s="111"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="123"/>
-      <c r="G79" s="114"/>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="116"/>
-      <c r="K79" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L79" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M79" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N79" s="130" t="s">
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="107"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L80" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N80" s="68" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" s="114" t="s">
+    <row r="81" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C80" s="111"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="115"/>
-      <c r="F80" s="123"/>
-      <c r="G80" s="114"/>
-      <c r="H80" s="116"/>
-      <c r="I80" s="116"/>
-      <c r="J80" s="116"/>
-      <c r="K80" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L80" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M80" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N80" s="130" t="s">
+      <c r="C81" s="101"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L81" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N81" s="68" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="114" t="s">
+    <row r="82" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="64" t="s">
         <v>375</v>
       </c>
-      <c r="C81" s="111"/>
-      <c r="D81" s="111"/>
-      <c r="E81" s="115"/>
-      <c r="F81" s="123"/>
-      <c r="G81" s="114"/>
-      <c r="H81" s="116"/>
-      <c r="I81" s="116"/>
-      <c r="J81" s="116"/>
-      <c r="K81" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L81" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M81" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N81" s="130" t="s">
+      <c r="C82" s="101"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="107"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L82" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N82" s="68" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="B82" s="114" t="s">
+    <row r="83" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="C82" s="111"/>
-      <c r="D82" s="111"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="123"/>
-      <c r="G82" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82" s="116"/>
-      <c r="I82" s="116"/>
-      <c r="J82" s="116"/>
-      <c r="K82" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L82" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N82" s="132" t="s">
+      <c r="C83" s="101"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L83" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N83" s="70" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="128" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="114" t="s">
+    <row r="84" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="C83" s="111"/>
-      <c r="D83" s="111"/>
-      <c r="E83" s="115"/>
-      <c r="F83" s="123"/>
-      <c r="G83" s="116"/>
-      <c r="H83" s="116"/>
-      <c r="I83" s="116"/>
-      <c r="J83" s="116"/>
-      <c r="K83" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L83" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="116"/>
-      <c r="N83" s="132" t="s">
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="116"/>
+      <c r="F84" s="107"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L84" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M84" s="65"/>
+      <c r="N84" s="70" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="128" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" s="114" t="s">
+    <row r="85" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="C84" s="111"/>
-      <c r="D84" s="111"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="123"/>
-      <c r="G84" s="116"/>
-      <c r="H84" s="116"/>
-      <c r="I84" s="116"/>
-      <c r="J84" s="116"/>
-      <c r="K84" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L84" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M84" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N84" s="130" t="s">
+      <c r="C85" s="101"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="116"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L85" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M85" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N85" s="68" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="B85" s="114" t="s">
+    <row r="86" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C85" s="111"/>
-      <c r="D85" s="111"/>
-      <c r="E85" s="115"/>
-      <c r="F85" s="123"/>
-      <c r="G85" s="116"/>
-      <c r="H85" s="116"/>
-      <c r="I85" s="116"/>
-      <c r="J85" s="116"/>
-      <c r="K85" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L85" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M85" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N85" s="130" t="s">
+      <c r="C86" s="101"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L86" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N86" s="68" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86" s="114" t="s">
+    <row r="87" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="C86" s="111"/>
-      <c r="D86" s="111"/>
-      <c r="E86" s="115" t="s">
+      <c r="C87" s="101"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="F86" s="123"/>
-      <c r="G86" s="116"/>
-      <c r="H86" s="114"/>
-      <c r="I86" s="114"/>
-      <c r="J86" s="116"/>
-      <c r="K86" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L86" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M86" s="114"/>
-      <c r="N86" s="130" t="s">
+      <c r="F87" s="107"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L87" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" s="64"/>
+      <c r="N87" s="68" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" s="114" t="s">
+    <row r="88" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="C87" s="111"/>
-      <c r="D87" s="111"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="123"/>
-      <c r="G87" s="116"/>
-      <c r="H87" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="I87" s="116"/>
-      <c r="J87" s="116"/>
-      <c r="K87" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L87" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M87" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N87" s="130" t="s">
+      <c r="C88" s="101"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L88" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N88" s="68" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="114" t="s">
+    <row r="89" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="C88" s="111"/>
-      <c r="D88" s="111"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="123"/>
-      <c r="G88" s="116"/>
-      <c r="H88" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="I88" s="116"/>
-      <c r="J88" s="116"/>
-      <c r="K88" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L88" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M88" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N88" s="130" t="s">
+      <c r="C89" s="101"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="117"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" s="65"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L89" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M89" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N89" s="68" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" s="114" t="s">
+    <row r="90" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="64" t="s">
         <v>389</v>
       </c>
-      <c r="C89" s="111"/>
-      <c r="D89" s="111"/>
-      <c r="E89" s="117"/>
-      <c r="F89" s="123"/>
-      <c r="G89" s="116"/>
-      <c r="H89" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="I89" s="116"/>
-      <c r="J89" s="116"/>
-      <c r="K89" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L89" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M89" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N89" s="131" t="s">
+      <c r="C90" s="101"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="107"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N90" s="69" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="128" t="s">
-        <v>133</v>
-      </c>
-      <c r="B90" s="114" t="s">
+    <row r="91" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="C90" s="111"/>
-      <c r="D90" s="111"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="123"/>
-      <c r="G90" s="114"/>
-      <c r="H90" s="116"/>
-      <c r="I90" s="116"/>
-      <c r="J90" s="116"/>
-      <c r="K90" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L90" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M90" s="114"/>
-      <c r="N90" s="131" t="s">
+      <c r="C91" s="101"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L91" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91" s="64"/>
+      <c r="N91" s="69" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="128" t="s">
-        <v>135</v>
-      </c>
-      <c r="B91" s="114" t="s">
+    <row r="92" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="C91" s="111"/>
-      <c r="D91" s="111"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="123"/>
-      <c r="G91" s="114"/>
-      <c r="H91" s="116"/>
-      <c r="I91" s="116"/>
-      <c r="J91" s="116"/>
-      <c r="K91" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L91" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M91" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N91" s="130" t="s">
+      <c r="C92" s="101"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="107"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L92" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M92" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N92" s="68" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="B92" s="114" t="s">
+    <row r="93" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="C92" s="111"/>
-      <c r="D92" s="111"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="123"/>
-      <c r="G92" s="114"/>
-      <c r="H92" s="116"/>
-      <c r="I92" s="116"/>
-      <c r="J92" s="116"/>
-      <c r="K92" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L92" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M92" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N92" s="130" t="s">
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="107"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L93" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M93" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N93" s="68" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="128" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" s="114" t="s">
+    <row r="94" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="C93" s="111"/>
-      <c r="D93" s="111"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="123"/>
-      <c r="G93" s="114"/>
-      <c r="H93" s="116"/>
-      <c r="I93" s="116"/>
-      <c r="J93" s="116"/>
-      <c r="K93" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L93" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M93" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N93" s="130" t="s">
+      <c r="C94" s="101"/>
+      <c r="D94" s="101"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="107"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L94" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M94" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N94" s="68" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="128" t="s">
-        <v>154</v>
-      </c>
-      <c r="B94" s="114" t="s">
+    <row r="95" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="C94" s="111"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="117"/>
-      <c r="F94" s="123"/>
-      <c r="G94" s="114"/>
-      <c r="H94" s="114"/>
-      <c r="I94" s="116"/>
-      <c r="J94" s="116"/>
-      <c r="K94" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L94" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M94" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N94" s="130" t="s">
+      <c r="C95" s="101"/>
+      <c r="D95" s="101"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="107"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L95" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M95" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N95" s="68" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="B95" s="114" t="s">
+    <row r="96" spans="1:14" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="C95" s="111"/>
-      <c r="D95" s="111"/>
-      <c r="E95" s="117"/>
-      <c r="F95" s="123"/>
-      <c r="G95" s="114"/>
-      <c r="H95" s="114"/>
-      <c r="I95" s="116"/>
-      <c r="J95" s="116"/>
-      <c r="K95" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L95" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M95" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N95" s="132" t="s">
+      <c r="C96" s="101"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="107"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L96" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M96" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N96" s="70" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" s="114" t="s">
+    <row r="97" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="C96" s="111"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="117"/>
-      <c r="F96" s="123"/>
-      <c r="G96" s="114"/>
-      <c r="H96" s="116"/>
-      <c r="I96" s="116"/>
-      <c r="J96" s="116"/>
-      <c r="K96" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L96" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M96" s="114"/>
-      <c r="N96" s="133" t="s">
+      <c r="C97" s="101"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="107"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L97" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" s="64"/>
+      <c r="N97" s="71" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="128" t="s">
-        <v>168</v>
-      </c>
-      <c r="B97" s="114" t="s">
+    <row r="98" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="C97" s="111"/>
-      <c r="D97" s="111"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="123"/>
-      <c r="G97" s="114"/>
-      <c r="H97" s="116"/>
-      <c r="I97" s="116"/>
-      <c r="J97" s="116"/>
-      <c r="K97" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L97" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M97" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N97" s="130" t="s">
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="107"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L98" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M98" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N98" s="68" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="128" t="s">
-        <v>171</v>
-      </c>
-      <c r="B98" s="114" t="s">
+    <row r="99" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" s="64" t="s">
         <v>402</v>
       </c>
-      <c r="C98" s="111"/>
-      <c r="D98" s="111"/>
-      <c r="E98" s="117"/>
-      <c r="F98" s="123"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="116"/>
-      <c r="I98" s="116"/>
-      <c r="J98" s="116"/>
-      <c r="K98" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L98" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M98" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N98" s="132" t="s">
+      <c r="C99" s="101"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="107"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L99" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N99" s="70" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="128" t="s">
-        <v>175</v>
-      </c>
-      <c r="B99" s="114" t="s">
+    <row r="100" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="123"/>
-      <c r="G99" s="114"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L99" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M99" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N99" s="130" t="s">
+      <c r="C100" s="101"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="107"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L100" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N100" s="68" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="128" t="s">
-        <v>179</v>
-      </c>
-      <c r="B100" s="114" t="s">
+    <row r="101" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" s="64" t="s">
         <v>406</v>
       </c>
-      <c r="C100" s="111"/>
-      <c r="D100" s="111"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="123"/>
-      <c r="G100" s="114"/>
-      <c r="H100" s="116"/>
-      <c r="I100" s="116"/>
-      <c r="J100" s="116"/>
-      <c r="K100" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L100" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M100" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N100" s="130" t="s">
+      <c r="C101" s="101"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="117"/>
+      <c r="F101" s="107"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L101" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M101" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N101" s="68" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="B101" s="114" t="s">
+    <row r="102" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="B102" s="64" t="s">
         <v>407</v>
       </c>
-      <c r="C101" s="111"/>
-      <c r="D101" s="111"/>
-      <c r="E101" s="117"/>
-      <c r="F101" s="123"/>
-      <c r="G101" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="H101" s="116"/>
-      <c r="I101" s="116"/>
-      <c r="J101" s="116"/>
-      <c r="K101" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L101" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M101" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N101" s="130" t="s">
+      <c r="C102" s="101"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="117"/>
+      <c r="F102" s="107"/>
+      <c r="G102" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L102" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M102" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N102" s="68" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="128" t="s">
-        <v>186</v>
-      </c>
-      <c r="B102" s="114" t="s">
+    <row r="103" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C102" s="111"/>
-      <c r="D102" s="111"/>
-      <c r="E102" s="117"/>
-      <c r="F102" s="123"/>
-      <c r="G102" s="116"/>
-      <c r="H102" s="116"/>
-      <c r="I102" s="116"/>
-      <c r="J102" s="116"/>
-      <c r="K102" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L102" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M102" s="116"/>
-      <c r="N102" s="130" t="s">
+      <c r="C103" s="101"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="117"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L103" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M103" s="65"/>
+      <c r="N103" s="68" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="B103" s="114" t="s">
+    <row r="104" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="C103" s="111"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="117"/>
-      <c r="F103" s="123"/>
-      <c r="G103" s="116"/>
-      <c r="H103" s="116"/>
-      <c r="I103" s="116"/>
-      <c r="J103" s="116"/>
-      <c r="K103" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L103" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M103" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N103" s="130" t="s">
+      <c r="C104" s="101"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="107"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L104" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M104" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N104" s="68" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="128" t="s">
-        <v>195</v>
-      </c>
-      <c r="B104" s="114" t="s">
+    <row r="105" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="C104" s="111"/>
-      <c r="D104" s="111"/>
-      <c r="E104" s="117"/>
-      <c r="F104" s="123"/>
-      <c r="G104" s="116"/>
-      <c r="H104" s="116"/>
-      <c r="I104" s="116"/>
-      <c r="J104" s="116"/>
-      <c r="K104" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L104" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M104" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N104" s="130" t="s">
+      <c r="C105" s="101"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="117"/>
+      <c r="F105" s="107"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L105" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M105" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N105" s="68" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="128" t="s">
-        <v>198</v>
-      </c>
-      <c r="B105" s="114" t="s">
+    <row r="106" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="C105" s="111"/>
-      <c r="D105" s="111"/>
-      <c r="E105" s="115" t="s">
+      <c r="C106" s="101"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="116" t="s">
         <v>284</v>
       </c>
-      <c r="F105" s="123"/>
-      <c r="G105" s="116"/>
-      <c r="H105" s="116"/>
-      <c r="I105" s="116"/>
-      <c r="J105" s="116"/>
-      <c r="K105" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L105" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M105" s="116"/>
-      <c r="N105" s="130" t="s">
+      <c r="F106" s="107"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M106" s="65"/>
+      <c r="N106" s="68" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="128" t="s">
-        <v>201</v>
-      </c>
-      <c r="B106" s="114" t="s">
+    <row r="107" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="C106" s="111"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="115"/>
-      <c r="F106" s="123"/>
-      <c r="G106" s="116"/>
-      <c r="H106" s="116"/>
-      <c r="I106" s="116"/>
-      <c r="J106" s="116"/>
-      <c r="K106" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L106" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M106" s="114"/>
-      <c r="N106" s="132" t="s">
+      <c r="C107" s="101"/>
+      <c r="D107" s="101"/>
+      <c r="E107" s="116"/>
+      <c r="F107" s="107"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+      <c r="K107" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L107" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M107" s="64"/>
+      <c r="N107" s="70" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="128" t="s">
-        <v>206</v>
-      </c>
-      <c r="B107" s="114" t="s">
+    <row r="108" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C107" s="111"/>
-      <c r="D107" s="111"/>
-      <c r="E107" s="115"/>
-      <c r="F107" s="123"/>
-      <c r="G107" s="116"/>
-      <c r="H107" s="116"/>
-      <c r="I107" s="116"/>
-      <c r="J107" s="114"/>
-      <c r="K107" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L107" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M107" s="114"/>
-      <c r="N107" s="130" t="s">
+      <c r="C108" s="101"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="116"/>
+      <c r="F108" s="107"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L108" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M108" s="64"/>
+      <c r="N108" s="68" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="B108" s="114" t="s">
+    <row r="109" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="C108" s="111"/>
-      <c r="D108" s="111"/>
-      <c r="E108" s="115"/>
-      <c r="F108" s="123"/>
-      <c r="G108" s="116"/>
-      <c r="H108" s="116"/>
-      <c r="I108" s="116"/>
-      <c r="J108" s="114"/>
-      <c r="K108" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L108" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M108" s="114"/>
-      <c r="N108" s="132" t="s">
+      <c r="C109" s="101"/>
+      <c r="D109" s="101"/>
+      <c r="E109" s="116"/>
+      <c r="F109" s="107"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="64"/>
+      <c r="K109" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L109" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M109" s="64"/>
+      <c r="N109" s="70" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="128" t="s">
-        <v>216</v>
-      </c>
-      <c r="B109" s="114" t="s">
+    <row r="110" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="C109" s="111"/>
-      <c r="D109" s="111"/>
-      <c r="E109" s="115"/>
-      <c r="F109" s="123"/>
-      <c r="G109" s="116"/>
-      <c r="H109" s="116"/>
-      <c r="I109" s="116"/>
-      <c r="J109" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="K109" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L109" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M109" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N109" s="130" t="s">
+      <c r="C110" s="101"/>
+      <c r="D110" s="101"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="107"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="K110" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M110" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N110" s="68" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="128" t="s">
-        <v>220</v>
-      </c>
-      <c r="B110" s="114" t="s">
+    <row r="111" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="C110" s="111"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="115"/>
-      <c r="F110" s="123"/>
-      <c r="G110" s="116"/>
-      <c r="H110" s="116"/>
-      <c r="I110" s="116"/>
-      <c r="J110" s="114"/>
-      <c r="K110" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L110" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M110" s="114"/>
-      <c r="N110" s="130" t="s">
+      <c r="C111" s="101"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="107"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="64"/>
+      <c r="K111" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L111" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111" s="64"/>
+      <c r="N111" s="68" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="128" t="s">
-        <v>223</v>
-      </c>
-      <c r="B111" s="114" t="s">
+    <row r="112" spans="1:14" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="C111" s="111"/>
-      <c r="D111" s="111"/>
-      <c r="E111" s="115"/>
-      <c r="F111" s="123"/>
-      <c r="G111" s="116"/>
-      <c r="H111" s="116"/>
-      <c r="I111" s="116"/>
-      <c r="J111" s="114"/>
-      <c r="K111" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L111" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M111" s="114"/>
-      <c r="N111" s="130" t="s">
+      <c r="C112" s="101"/>
+      <c r="D112" s="101"/>
+      <c r="E112" s="116"/>
+      <c r="F112" s="107"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="64"/>
+      <c r="K112" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M112" s="64"/>
+      <c r="N112" s="68" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="128" t="s">
-        <v>294</v>
-      </c>
-      <c r="B112" s="114" t="s">
+    <row r="113" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="B113" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="C112" s="111"/>
-      <c r="D112" s="111"/>
-      <c r="E112" s="115"/>
-      <c r="F112" s="124"/>
-      <c r="G112" s="116"/>
-      <c r="H112" s="116"/>
-      <c r="I112" s="116"/>
-      <c r="J112" s="116"/>
-      <c r="K112" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L112" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M112" s="114"/>
-      <c r="N112" s="130" t="s">
+      <c r="C113" s="101"/>
+      <c r="D113" s="101"/>
+      <c r="E113" s="116"/>
+      <c r="F113" s="108"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M113" s="64"/>
+      <c r="N113" s="68" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="128" t="s">
-        <v>428</v>
-      </c>
-      <c r="B113" s="114" t="s">
+    <row r="114" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="66" t="s">
+        <v>431</v>
+      </c>
+      <c r="B114" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="C113" s="111"/>
-      <c r="D113" s="111"/>
-      <c r="E113" s="115"/>
-      <c r="F113" s="121" t="s">
+      <c r="C114" s="101"/>
+      <c r="D114" s="101"/>
+      <c r="E114" s="116"/>
+      <c r="F114" s="103" t="s">
         <v>450</v>
       </c>
-      <c r="G113" s="116"/>
-      <c r="H113" s="116"/>
-      <c r="I113" s="116"/>
-      <c r="J113" s="116"/>
-      <c r="K113" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L113" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M113" s="114"/>
-      <c r="N113" s="134" t="s">
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="65"/>
+      <c r="J114" s="65"/>
+      <c r="K114" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M114" s="64"/>
+      <c r="N114" s="72" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="128" t="s">
-        <v>431</v>
-      </c>
-      <c r="B114" s="114" t="s">
+    <row r="115" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="B115" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="C114" s="111"/>
-      <c r="D114" s="111"/>
-      <c r="E114" s="115"/>
-      <c r="F114" s="119"/>
-      <c r="G114" s="116"/>
-      <c r="H114" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="I114" s="116"/>
-      <c r="J114" s="116"/>
-      <c r="K114" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L114" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M114" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N114" s="130" t="s">
+      <c r="C115" s="101"/>
+      <c r="D115" s="101"/>
+      <c r="E115" s="116"/>
+      <c r="F115" s="104"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
+      <c r="K115" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L115" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M115" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N115" s="68" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="115" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="128" t="s">
-        <v>434</v>
-      </c>
-      <c r="B115" s="114" t="s">
+    <row r="116" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B116" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="C115" s="111"/>
-      <c r="D115" s="111"/>
-      <c r="E115" s="115"/>
-      <c r="F115" s="119"/>
-      <c r="G115" s="116"/>
-      <c r="H115" s="116"/>
-      <c r="I115" s="116"/>
-      <c r="J115" s="116"/>
-      <c r="K115" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L115" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M115" s="114"/>
-      <c r="N115" s="130" t="s">
+      <c r="C116" s="101"/>
+      <c r="D116" s="101"/>
+      <c r="E116" s="116"/>
+      <c r="F116" s="104"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L116" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M116" s="64"/>
+      <c r="N116" s="68" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="116" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="128" t="s">
-        <v>437</v>
-      </c>
-      <c r="B116" s="114" t="s">
+    <row r="117" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="66" t="s">
+        <v>440</v>
+      </c>
+      <c r="B117" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="C116" s="111"/>
-      <c r="D116" s="111"/>
-      <c r="E116" s="115"/>
-      <c r="F116" s="120"/>
-      <c r="G116" s="114"/>
-      <c r="H116" s="116"/>
-      <c r="I116" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="J116" s="116"/>
-      <c r="K116" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L116" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M116" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N116" s="130" t="s">
+      <c r="C117" s="101"/>
+      <c r="D117" s="101"/>
+      <c r="E117" s="116"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J117" s="65"/>
+      <c r="K117" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M117" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N117" s="68" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="128" t="s">
-        <v>440</v>
-      </c>
-      <c r="B117" s="114" t="s">
+    <row r="118" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="B118" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="C117" s="111"/>
-      <c r="D117" s="111"/>
-      <c r="E117" s="115" t="s">
+      <c r="C118" s="101"/>
+      <c r="D118" s="101"/>
+      <c r="E118" s="116" t="s">
         <v>286</v>
       </c>
-      <c r="F117" s="118"/>
-      <c r="G117" s="116"/>
-      <c r="H117" s="116"/>
-      <c r="I117" s="116"/>
-      <c r="J117" s="116"/>
-      <c r="K117" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L117" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M117" s="116"/>
-      <c r="N117" s="130" t="s">
+      <c r="F118" s="130"/>
+      <c r="G118" s="65"/>
+      <c r="H118" s="65"/>
+      <c r="I118" s="65"/>
+      <c r="J118" s="65"/>
+      <c r="K118" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L118" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M118" s="65"/>
+      <c r="N118" s="68" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="128" t="s">
-        <v>442</v>
-      </c>
-      <c r="B118" s="114" t="s">
+    <row r="119" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="66" t="s">
+        <v>443</v>
+      </c>
+      <c r="B119" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="C118" s="111"/>
-      <c r="D118" s="111"/>
-      <c r="E118" s="117"/>
-      <c r="F118" s="118"/>
-      <c r="G118" s="116"/>
-      <c r="H118" s="116"/>
-      <c r="I118" s="116"/>
-      <c r="J118" s="116"/>
-      <c r="K118" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L118" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M118" s="116"/>
-      <c r="N118" s="130" t="s">
+      <c r="C119" s="101"/>
+      <c r="D119" s="101"/>
+      <c r="E119" s="117"/>
+      <c r="F119" s="130"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="65"/>
+      <c r="I119" s="65"/>
+      <c r="J119" s="65"/>
+      <c r="K119" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L119" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M119" s="65"/>
+      <c r="N119" s="68" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="128" t="s">
-        <v>443</v>
-      </c>
-      <c r="B119" s="114" t="s">
+    <row r="120" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="B120" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="C119" s="111"/>
-      <c r="D119" s="111"/>
-      <c r="E119" s="117"/>
-      <c r="F119" s="118"/>
-      <c r="G119" s="116"/>
-      <c r="H119" s="116"/>
-      <c r="I119" s="116"/>
-      <c r="J119" s="116"/>
-      <c r="K119" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L119" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M119" s="116"/>
-      <c r="N119" s="130" t="s">
+      <c r="C120" s="101"/>
+      <c r="D120" s="101"/>
+      <c r="E120" s="117"/>
+      <c r="F120" s="130"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="65"/>
+      <c r="J120" s="65"/>
+      <c r="K120" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M120" s="65"/>
+      <c r="N120" s="68" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="128" t="s">
-        <v>444</v>
-      </c>
-      <c r="B120" s="114" t="s">
+    <row r="121" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="B121" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="C120" s="111"/>
-      <c r="D120" s="111"/>
-      <c r="E120" s="117"/>
-      <c r="F120" s="118"/>
-      <c r="G120" s="116"/>
-      <c r="H120" s="116"/>
-      <c r="I120" s="116"/>
-      <c r="J120" s="116"/>
-      <c r="K120" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L120" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M120" s="116"/>
-      <c r="N120" s="132" t="s">
+      <c r="C121" s="101"/>
+      <c r="D121" s="101"/>
+      <c r="E121" s="117"/>
+      <c r="F121" s="130"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65"/>
+      <c r="K121" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L121" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M121" s="65"/>
+      <c r="N121" s="70" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="128" t="s">
-        <v>446</v>
-      </c>
-      <c r="B121" s="114" t="s">
+    <row r="122" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="B122" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="C121" s="111"/>
-      <c r="D121" s="111"/>
-      <c r="E121" s="115" t="s">
+      <c r="C122" s="101"/>
+      <c r="D122" s="101"/>
+      <c r="E122" s="116" t="s">
         <v>291</v>
       </c>
-      <c r="F121" s="118"/>
-      <c r="G121" s="116"/>
-      <c r="H121" s="116"/>
-      <c r="I121" s="116"/>
-      <c r="J121" s="116"/>
-      <c r="K121" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L121" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M121" s="116"/>
-      <c r="N121" s="130" t="s">
+      <c r="F122" s="130"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65"/>
+      <c r="K122" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M122" s="65"/>
+      <c r="N122" s="68" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="128" t="s">
-        <v>447</v>
-      </c>
-      <c r="B122" s="114" t="s">
+    <row r="123" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="B123" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="C122" s="111"/>
-      <c r="D122" s="111"/>
-      <c r="E122" s="117"/>
-      <c r="F122" s="118"/>
-      <c r="G122" s="116"/>
-      <c r="H122" s="116"/>
-      <c r="I122" s="116"/>
-      <c r="J122" s="116"/>
-      <c r="K122" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L122" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M122" s="116"/>
-      <c r="N122" s="130" t="s">
+      <c r="C123" s="101"/>
+      <c r="D123" s="101"/>
+      <c r="E123" s="117"/>
+      <c r="F123" s="130"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65"/>
+      <c r="K123" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L123" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M123" s="65"/>
+      <c r="N123" s="68" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="123" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="128" t="s">
-        <v>448</v>
-      </c>
-      <c r="B123" s="114" t="s">
+    <row r="124" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="B124" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="C123" s="111"/>
-      <c r="D123" s="111"/>
-      <c r="E123" s="117"/>
-      <c r="F123" s="118"/>
-      <c r="G123" s="116"/>
-      <c r="H123" s="116"/>
-      <c r="I123" s="116"/>
-      <c r="J123" s="116"/>
-      <c r="K123" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L123" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="M123" s="116"/>
-      <c r="N123" s="130" t="s">
+      <c r="C124" s="101"/>
+      <c r="D124" s="101"/>
+      <c r="E124" s="117"/>
+      <c r="F124" s="130"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L124" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M124" s="65"/>
+      <c r="N124" s="68" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="102" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="128" t="s">
-        <v>449</v>
-      </c>
-      <c r="B124" s="135" t="s">
+    <row r="125" spans="1:15" s="58" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="66" t="s">
+        <v>451</v>
+      </c>
+      <c r="B125" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="C124" s="136"/>
-      <c r="D124" s="136"/>
-      <c r="E124" s="137"/>
-      <c r="F124" s="138"/>
-      <c r="G124" s="139"/>
-      <c r="H124" s="139"/>
-      <c r="I124" s="139"/>
-      <c r="J124" s="139"/>
-      <c r="K124" s="135" t="s">
-        <v>30</v>
-      </c>
-      <c r="L124" s="135" t="s">
-        <v>30</v>
-      </c>
-      <c r="M124" s="139"/>
-      <c r="N124" s="140" t="s">
+      <c r="C125" s="102"/>
+      <c r="D125" s="102"/>
+      <c r="E125" s="118"/>
+      <c r="F125" s="131"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="74"/>
+      <c r="I125" s="74"/>
+      <c r="J125" s="74"/>
+      <c r="K125" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="M125" s="74"/>
+      <c r="N125" s="75" t="s">
         <v>445</v>
       </c>
-      <c r="O124" s="108"/>
-    </row>
-    <row r="125" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12"/>
-      <c r="M125" s="12"/>
-      <c r="N125" s="12"/>
-    </row>
-    <row r="126" spans="1:15" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="100" t="s">
+      <c r="O125" s="60"/>
+    </row>
+    <row r="126" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+    </row>
+    <row r="127" spans="1:15" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="113" t="s">
         <v>296</v>
       </c>
-      <c r="B126" s="106"/>
-      <c r="C126" s="106"/>
-      <c r="D126" s="106"/>
-      <c r="E126" s="106"/>
-      <c r="F126" s="106"/>
-      <c r="G126" s="106"/>
-      <c r="H126" s="106"/>
-      <c r="I126" s="106"/>
-      <c r="J126" s="106"/>
-      <c r="K126" s="106"/>
-      <c r="L126" s="106"/>
-      <c r="M126" s="106"/>
-      <c r="N126" s="107"/>
-    </row>
-    <row r="127" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B127" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="C127" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="D127" s="96" t="s">
-        <v>298</v>
-      </c>
-      <c r="E127" s="99"/>
-      <c r="F127" s="99"/>
-      <c r="G127" s="49"/>
-      <c r="H127" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="I127" s="49"/>
-      <c r="J127" s="49"/>
-      <c r="K127" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L127" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M127" s="49"/>
-      <c r="N127" s="50" t="s">
-        <v>299</v>
-      </c>
+      <c r="B127" s="114"/>
+      <c r="C127" s="114"/>
+      <c r="D127" s="114"/>
+      <c r="E127" s="114"/>
+      <c r="F127" s="114"/>
+      <c r="G127" s="114"/>
+      <c r="H127" s="114"/>
+      <c r="I127" s="114"/>
+      <c r="J127" s="114"/>
+      <c r="K127" s="114"/>
+      <c r="L127" s="114"/>
+      <c r="M127" s="114"/>
+      <c r="N127" s="115"/>
     </row>
     <row r="128" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B128" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="C128" s="89"/>
-      <c r="D128" s="89"/>
-      <c r="E128" s="104"/>
-      <c r="F128" s="89"/>
+        <v>297</v>
+      </c>
+      <c r="C128" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="D128" s="109" t="s">
+        <v>298</v>
+      </c>
+      <c r="E128" s="112"/>
+      <c r="F128" s="112"/>
       <c r="G128" s="49"/>
       <c r="H128" s="39" t="s">
         <v>30</v>
@@ -13464,27 +13685,23 @@
       <c r="L128" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="M128" s="39" t="s">
-        <v>30</v>
-      </c>
+      <c r="M128" s="49"/>
       <c r="N128" s="50" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B129" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="C129" s="89"/>
-      <c r="D129" s="89"/>
-      <c r="E129" s="104"/>
-      <c r="F129" s="89"/>
-      <c r="G129" s="39" t="s">
-        <v>30</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C129" s="110"/>
+      <c r="D129" s="110"/>
+      <c r="E129" s="122"/>
+      <c r="F129" s="110"/>
+      <c r="G129" s="49"/>
       <c r="H129" s="39" t="s">
         <v>30</v>
       </c>
@@ -13500,24 +13717,26 @@
         <v>30</v>
       </c>
       <c r="N129" s="50" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B130" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="C130" s="89"/>
-      <c r="D130" s="89"/>
-      <c r="E130" s="104"/>
-      <c r="F130" s="89"/>
+        <v>302</v>
+      </c>
+      <c r="C130" s="110"/>
+      <c r="D130" s="110"/>
+      <c r="E130" s="122"/>
+      <c r="F130" s="110"/>
       <c r="G130" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H130" s="49"/>
+      <c r="H130" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="I130" s="49"/>
       <c r="J130" s="49"/>
       <c r="K130" s="39" t="s">
@@ -13530,20 +13749,20 @@
         <v>30</v>
       </c>
       <c r="N130" s="50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B131" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="C131" s="89"/>
-      <c r="D131" s="89"/>
-      <c r="E131" s="104"/>
-      <c r="F131" s="89"/>
+        <v>304</v>
+      </c>
+      <c r="C131" s="110"/>
+      <c r="D131" s="110"/>
+      <c r="E131" s="122"/>
+      <c r="F131" s="110"/>
       <c r="G131" s="39" t="s">
         <v>30</v>
       </c>
@@ -13560,27 +13779,25 @@
         <v>30</v>
       </c>
       <c r="N131" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B132" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="C132" s="89"/>
-      <c r="D132" s="89"/>
-      <c r="E132" s="104"/>
-      <c r="F132" s="89"/>
+        <v>306</v>
+      </c>
+      <c r="C132" s="110"/>
+      <c r="D132" s="110"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="110"/>
       <c r="G132" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H132" s="49"/>
-      <c r="I132" s="39" t="s">
-        <v>30</v>
-      </c>
+      <c r="I132" s="49"/>
       <c r="J132" s="49"/>
       <c r="K132" s="39" t="s">
         <v>30</v>
@@ -13592,25 +13809,27 @@
         <v>30</v>
       </c>
       <c r="N132" s="50" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B133" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="C133" s="89"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="104"/>
-      <c r="F133" s="89"/>
-      <c r="G133" s="49"/>
-      <c r="H133" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="I133" s="49"/>
+        <v>308</v>
+      </c>
+      <c r="C133" s="110"/>
+      <c r="D133" s="110"/>
+      <c r="E133" s="122"/>
+      <c r="F133" s="110"/>
+      <c r="G133" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" s="49"/>
+      <c r="I133" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="J133" s="49"/>
       <c r="K133" s="39" t="s">
         <v>30</v>
@@ -13622,22 +13841,24 @@
         <v>30</v>
       </c>
       <c r="N133" s="50" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B134" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="C134" s="89"/>
-      <c r="D134" s="89"/>
-      <c r="E134" s="104"/>
-      <c r="F134" s="89"/>
+        <v>310</v>
+      </c>
+      <c r="C134" s="110"/>
+      <c r="D134" s="110"/>
+      <c r="E134" s="122"/>
+      <c r="F134" s="110"/>
       <c r="G134" s="49"/>
-      <c r="H134" s="39"/>
+      <c r="H134" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="I134" s="49"/>
       <c r="J134" s="49"/>
       <c r="K134" s="39" t="s">
@@ -13646,24 +13867,26 @@
       <c r="L134" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="M134" s="49"/>
+      <c r="M134" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="N134" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B135" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="C135" s="89"/>
-      <c r="D135" s="89"/>
-      <c r="E135" s="104"/>
-      <c r="F135" s="89"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="49"/>
+        <v>312</v>
+      </c>
+      <c r="C135" s="110"/>
+      <c r="D135" s="110"/>
+      <c r="E135" s="122"/>
+      <c r="F135" s="110"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="39"/>
       <c r="I135" s="49"/>
       <c r="J135" s="49"/>
       <c r="K135" s="39" t="s">
@@ -13674,23 +13897,21 @@
       </c>
       <c r="M135" s="49"/>
       <c r="N135" s="50" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="51">
-        <v>10</v>
+      <c r="A136" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B136" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="C136" s="89"/>
-      <c r="D136" s="89"/>
-      <c r="E136" s="105"/>
-      <c r="F136" s="89"/>
-      <c r="G136" s="39" t="s">
-        <v>30</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C136" s="110"/>
+      <c r="D136" s="110"/>
+      <c r="E136" s="122"/>
+      <c r="F136" s="110"/>
+      <c r="G136" s="39"/>
       <c r="H136" s="49"/>
       <c r="I136" s="49"/>
       <c r="J136" s="49"/>
@@ -13700,26 +13921,22 @@
       <c r="L136" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="M136" s="39" t="s">
-        <v>30</v>
-      </c>
+      <c r="M136" s="49"/>
       <c r="N136" s="50" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B137" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="C137" s="89"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="96" t="s">
-        <v>319</v>
-      </c>
-      <c r="F137" s="89"/>
+        <v>316</v>
+      </c>
+      <c r="C137" s="110"/>
+      <c r="D137" s="110"/>
+      <c r="E137" s="123"/>
+      <c r="F137" s="110"/>
       <c r="G137" s="39" t="s">
         <v>30</v>
       </c>
@@ -13736,48 +13953,52 @@
         <v>30</v>
       </c>
       <c r="N137" s="50" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B138" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="C138" s="89"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="89"/>
-      <c r="G138" s="39"/>
+        <v>318</v>
+      </c>
+      <c r="C138" s="110"/>
+      <c r="D138" s="110"/>
+      <c r="E138" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="F138" s="110"/>
+      <c r="G138" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="H138" s="49"/>
       <c r="I138" s="49"/>
       <c r="J138" s="49"/>
       <c r="K138" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L138" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M138" s="52" t="s">
+      <c r="L138" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M138" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N138" s="50" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B139" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="C139" s="89"/>
-      <c r="D139" s="89"/>
-      <c r="E139" s="89"/>
-      <c r="F139" s="89"/>
+        <v>321</v>
+      </c>
+      <c r="C139" s="110"/>
+      <c r="D139" s="110"/>
+      <c r="E139" s="110"/>
+      <c r="F139" s="110"/>
       <c r="G139" s="39"/>
       <c r="H139" s="49"/>
       <c r="I139" s="49"/>
@@ -13785,25 +14006,27 @@
       <c r="K139" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L139" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M139" s="49"/>
+      <c r="L139" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M139" s="52" t="s">
+        <v>30</v>
+      </c>
       <c r="N139" s="50" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B140" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="C140" s="89"/>
-      <c r="D140" s="89"/>
-      <c r="E140" s="89"/>
-      <c r="F140" s="89"/>
+        <v>323</v>
+      </c>
+      <c r="C140" s="110"/>
+      <c r="D140" s="110"/>
+      <c r="E140" s="110"/>
+      <c r="F140" s="110"/>
       <c r="G140" s="39"/>
       <c r="H140" s="49"/>
       <c r="I140" s="49"/>
@@ -13816,20 +14039,20 @@
       </c>
       <c r="M140" s="49"/>
       <c r="N140" s="50" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B141" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="C141" s="89"/>
-      <c r="D141" s="89"/>
-      <c r="E141" s="89"/>
-      <c r="F141" s="89"/>
+        <v>325</v>
+      </c>
+      <c r="C141" s="110"/>
+      <c r="D141" s="110"/>
+      <c r="E141" s="110"/>
+      <c r="F141" s="110"/>
       <c r="G141" s="39"/>
       <c r="H141" s="49"/>
       <c r="I141" s="49"/>
@@ -13842,24 +14065,22 @@
       </c>
       <c r="M141" s="49"/>
       <c r="N141" s="50" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B142" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="C142" s="89"/>
-      <c r="D142" s="89"/>
-      <c r="E142" s="89"/>
-      <c r="F142" s="89"/>
-      <c r="G142" s="49"/>
-      <c r="H142" s="39" t="s">
-        <v>30</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C142" s="110"/>
+      <c r="D142" s="110"/>
+      <c r="E142" s="110"/>
+      <c r="F142" s="110"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="49"/>
       <c r="I142" s="49"/>
       <c r="J142" s="49"/>
       <c r="K142" s="39" t="s">
@@ -13870,24 +14091,24 @@
       </c>
       <c r="M142" s="49"/>
       <c r="N142" s="50" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B143" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="C143" s="89"/>
-      <c r="D143" s="89"/>
-      <c r="E143" s="89"/>
-      <c r="F143" s="89"/>
-      <c r="G143" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H143" s="49"/>
+        <v>329</v>
+      </c>
+      <c r="C143" s="110"/>
+      <c r="D143" s="110"/>
+      <c r="E143" s="110"/>
+      <c r="F143" s="110"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="I143" s="49"/>
       <c r="J143" s="49"/>
       <c r="K143" s="39" t="s">
@@ -13896,24 +14117,22 @@
       <c r="L143" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="M143" s="39" t="s">
-        <v>30</v>
-      </c>
+      <c r="M143" s="49"/>
       <c r="N143" s="50" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B144" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="C144" s="89"/>
-      <c r="D144" s="89"/>
-      <c r="E144" s="90"/>
-      <c r="F144" s="89"/>
+        <v>331</v>
+      </c>
+      <c r="C144" s="110"/>
+      <c r="D144" s="110"/>
+      <c r="E144" s="110"/>
+      <c r="F144" s="110"/>
       <c r="G144" s="39" t="s">
         <v>30</v>
       </c>
@@ -13930,26 +14149,24 @@
         <v>30</v>
       </c>
       <c r="N144" s="50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="51">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B145" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="C145" s="89"/>
-      <c r="D145" s="89"/>
-      <c r="E145" s="96" t="s">
-        <v>336</v>
-      </c>
-      <c r="F145" s="89"/>
-      <c r="G145" s="49"/>
-      <c r="H145" s="39" t="s">
-        <v>30</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C145" s="110"/>
+      <c r="D145" s="110"/>
+      <c r="E145" s="120"/>
+      <c r="F145" s="110"/>
+      <c r="G145" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145" s="49"/>
       <c r="I145" s="49"/>
       <c r="J145" s="49"/>
       <c r="K145" s="39" t="s">
@@ -13958,29 +14175,31 @@
       <c r="L145" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="M145" s="49"/>
+      <c r="M145" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="N145" s="50" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B146" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="C146" s="89"/>
-      <c r="D146" s="89"/>
-      <c r="E146" s="89"/>
-      <c r="F146" s="89"/>
+        <v>335</v>
+      </c>
+      <c r="C146" s="110"/>
+      <c r="D146" s="110"/>
+      <c r="E146" s="109" t="s">
+        <v>336</v>
+      </c>
+      <c r="F146" s="110"/>
       <c r="G146" s="49"/>
       <c r="H146" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I146" s="39" t="s">
-        <v>30</v>
-      </c>
+      <c r="I146" s="49"/>
       <c r="J146" s="49"/>
       <c r="K146" s="39" t="s">
         <v>30</v>
@@ -13990,25 +14209,27 @@
       </c>
       <c r="M146" s="49"/>
       <c r="N146" s="50" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B147" s="39" t="s">
-        <v>340</v>
-      </c>
-      <c r="C147" s="89"/>
-      <c r="D147" s="89"/>
-      <c r="E147" s="89"/>
-      <c r="F147" s="89"/>
+        <v>338</v>
+      </c>
+      <c r="C147" s="110"/>
+      <c r="D147" s="110"/>
+      <c r="E147" s="110"/>
+      <c r="F147" s="110"/>
       <c r="G147" s="49"/>
       <c r="H147" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I147" s="49"/>
+      <c r="I147" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="J147" s="49"/>
       <c r="K147" s="39" t="s">
         <v>30</v>
@@ -14018,20 +14239,20 @@
       </c>
       <c r="M147" s="49"/>
       <c r="N147" s="50" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B148" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="C148" s="89"/>
-      <c r="D148" s="89"/>
-      <c r="E148" s="89"/>
-      <c r="F148" s="89"/>
+        <v>340</v>
+      </c>
+      <c r="C148" s="110"/>
+      <c r="D148" s="110"/>
+      <c r="E148" s="110"/>
+      <c r="F148" s="110"/>
       <c r="G148" s="49"/>
       <c r="H148" s="39" t="s">
         <v>30</v>
@@ -14046,20 +14267,20 @@
       </c>
       <c r="M148" s="49"/>
       <c r="N148" s="50" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B149" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="C149" s="89"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="89"/>
-      <c r="F149" s="89"/>
+        <v>342</v>
+      </c>
+      <c r="C149" s="110"/>
+      <c r="D149" s="110"/>
+      <c r="E149" s="110"/>
+      <c r="F149" s="110"/>
       <c r="G149" s="49"/>
       <c r="H149" s="39" t="s">
         <v>30</v>
@@ -14074,20 +14295,20 @@
       </c>
       <c r="M149" s="49"/>
       <c r="N149" s="50" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="51">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B150" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="C150" s="89"/>
-      <c r="D150" s="89"/>
-      <c r="E150" s="89"/>
-      <c r="F150" s="89"/>
+        <v>344</v>
+      </c>
+      <c r="C150" s="110"/>
+      <c r="D150" s="110"/>
+      <c r="E150" s="110"/>
+      <c r="F150" s="110"/>
       <c r="G150" s="49"/>
       <c r="H150" s="39" t="s">
         <v>30</v>
@@ -14102,25 +14323,25 @@
       </c>
       <c r="M150" s="49"/>
       <c r="N150" s="50" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B151" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="C151" s="89"/>
-      <c r="D151" s="89"/>
-      <c r="E151" s="89"/>
-      <c r="F151" s="89"/>
+        <v>346</v>
+      </c>
+      <c r="C151" s="110"/>
+      <c r="D151" s="110"/>
+      <c r="E151" s="110"/>
+      <c r="F151" s="110"/>
       <c r="G151" s="49"/>
-      <c r="H151" s="49"/>
-      <c r="I151" s="39" t="s">
-        <v>30</v>
-      </c>
+      <c r="H151" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I151" s="49"/>
       <c r="J151" s="49"/>
       <c r="K151" s="39" t="s">
         <v>30</v>
@@ -14130,58 +14351,54 @@
       </c>
       <c r="M151" s="49"/>
       <c r="N151" s="50" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="51">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B152" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="C152" s="89"/>
-      <c r="D152" s="89"/>
-      <c r="E152" s="89"/>
-      <c r="F152" s="89"/>
+        <v>348</v>
+      </c>
+      <c r="C152" s="110"/>
+      <c r="D152" s="110"/>
+      <c r="E152" s="110"/>
+      <c r="F152" s="110"/>
       <c r="G152" s="49"/>
       <c r="H152" s="49"/>
-      <c r="I152" s="49"/>
-      <c r="J152" s="39" t="s">
-        <v>30</v>
-      </c>
+      <c r="I152" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J152" s="49"/>
       <c r="K152" s="39" t="s">
         <v>30</v>
       </c>
       <c r="L152" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="M152" s="39" t="s">
-        <v>30</v>
-      </c>
+      <c r="M152" s="49"/>
       <c r="N152" s="50" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="51">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B153" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="C153" s="89"/>
-      <c r="D153" s="89"/>
-      <c r="E153" s="89"/>
-      <c r="F153" s="89"/>
-      <c r="G153" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H153" s="39" t="s">
-        <v>30</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C153" s="110"/>
+      <c r="D153" s="110"/>
+      <c r="E153" s="110"/>
+      <c r="F153" s="110"/>
+      <c r="G153" s="49"/>
+      <c r="H153" s="49"/>
       <c r="I153" s="49"/>
-      <c r="J153" s="49"/>
+      <c r="J153" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="K153" s="39" t="s">
         <v>30</v>
       </c>
@@ -14192,25 +14409,27 @@
         <v>30</v>
       </c>
       <c r="N153" s="50" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="51">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B154" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="C154" s="89"/>
-      <c r="D154" s="89"/>
-      <c r="E154" s="89"/>
-      <c r="F154" s="89"/>
-      <c r="G154" s="49"/>
-      <c r="H154" s="49"/>
-      <c r="I154" s="39" t="s">
-        <v>30</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C154" s="110"/>
+      <c r="D154" s="110"/>
+      <c r="E154" s="110"/>
+      <c r="F154" s="110"/>
+      <c r="G154" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H154" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I154" s="49"/>
       <c r="J154" s="49"/>
       <c r="K154" s="39" t="s">
         <v>30</v>
@@ -14218,72 +14437,101 @@
       <c r="L154" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="M154" s="49"/>
+      <c r="M154" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="N154" s="50" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="51">
+        <v>28</v>
+      </c>
+      <c r="B155" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="C155" s="110"/>
+      <c r="D155" s="110"/>
+      <c r="E155" s="110"/>
+      <c r="F155" s="110"/>
+      <c r="G155" s="49"/>
+      <c r="H155" s="49"/>
+      <c r="I155" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J155" s="49"/>
+      <c r="K155" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L155" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M155" s="49"/>
+      <c r="N155" s="50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="51">
         <v>29</v>
       </c>
-      <c r="B155" s="39" t="s">
+      <c r="B156" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="C155" s="89"/>
-      <c r="D155" s="89"/>
-      <c r="E155" s="89"/>
-      <c r="F155" s="89"/>
-      <c r="G155" s="49"/>
-      <c r="H155" s="39"/>
-      <c r="I155" s="39"/>
-      <c r="J155" s="39"/>
-      <c r="K155" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L155" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M155" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N155" s="50" t="s">
+      <c r="C156" s="110"/>
+      <c r="D156" s="110"/>
+      <c r="E156" s="110"/>
+      <c r="F156" s="110"/>
+      <c r="G156" s="49"/>
+      <c r="H156" s="39"/>
+      <c r="I156" s="39"/>
+      <c r="J156" s="39"/>
+      <c r="K156" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L156" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M156" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N156" s="50" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="53">
-        <v>30</v>
-      </c>
-      <c r="B156" s="54" t="s">
+    <row r="157" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="53">
+        <v>30</v>
+      </c>
+      <c r="B157" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="C156" s="97"/>
-      <c r="D156" s="97"/>
-      <c r="E156" s="97"/>
-      <c r="F156" s="97"/>
-      <c r="G156" s="55"/>
-      <c r="H156" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I156" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="J156" s="54"/>
-      <c r="K156" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="L156" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="M156" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="N156" s="56" t="s">
+      <c r="C157" s="111"/>
+      <c r="D157" s="111"/>
+      <c r="E157" s="111"/>
+      <c r="F157" s="111"/>
+      <c r="G157" s="55"/>
+      <c r="H157" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I157" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J157" s="54"/>
+      <c r="K157" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L157" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="M157" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N157" s="56" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="159" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="160" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15160,35 +15408,9 @@
     <row r="1031" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1032" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1033" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1034" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D60:D124"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="F60:F112"/>
-    <mergeCell ref="C127:C156"/>
-    <mergeCell ref="F127:F156"/>
-    <mergeCell ref="E145:E156"/>
-    <mergeCell ref="A126:N126"/>
-    <mergeCell ref="E73:E85"/>
-    <mergeCell ref="E86:E104"/>
-    <mergeCell ref="E105:E116"/>
-    <mergeCell ref="E117:E120"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="D127:D156"/>
-    <mergeCell ref="D20:D34"/>
-    <mergeCell ref="D35:D57"/>
-    <mergeCell ref="E137:E144"/>
-    <mergeCell ref="E127:E136"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="E39:E57"/>
-    <mergeCell ref="E6:E38"/>
-    <mergeCell ref="E60:E72"/>
-    <mergeCell ref="F41:F52"/>
-    <mergeCell ref="F53:F57"/>
-    <mergeCell ref="F6:F40"/>
-    <mergeCell ref="C20:C57"/>
-    <mergeCell ref="F117:F124"/>
-    <mergeCell ref="C60:C124"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="F1:F2"/>
@@ -15202,6 +15424,33 @@
     <mergeCell ref="D10:D19"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D20:D34"/>
+    <mergeCell ref="D35:D57"/>
+    <mergeCell ref="E138:E145"/>
+    <mergeCell ref="E128:E137"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="E39:E57"/>
+    <mergeCell ref="E6:E38"/>
+    <mergeCell ref="E60:E73"/>
+    <mergeCell ref="F41:F52"/>
+    <mergeCell ref="F53:F57"/>
+    <mergeCell ref="F6:F40"/>
+    <mergeCell ref="C20:C57"/>
+    <mergeCell ref="F118:F125"/>
+    <mergeCell ref="C60:C125"/>
+    <mergeCell ref="D60:D125"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="F60:F113"/>
+    <mergeCell ref="C128:C157"/>
+    <mergeCell ref="F128:F157"/>
+    <mergeCell ref="E146:E157"/>
+    <mergeCell ref="A127:N127"/>
+    <mergeCell ref="E74:E86"/>
+    <mergeCell ref="E87:E105"/>
+    <mergeCell ref="E106:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="D128:D157"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -15210,7 +15459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
